--- a/data/systematic_review/double_blind/stage1_title_abstract/R1_R2_R3_R4_included_studies.xlsx
+++ b/data/systematic_review/double_blind/stage1_title_abstract/R1_R2_R3_R4_included_studies.xlsx
@@ -9762,11 +9762,11 @@
   <dimension ref="A1:AB91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="W86" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="Y88" sqref="Y88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -9791,7 +9791,7 @@
     <col min="24" max="28" width="20.6363636363636" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" spans="1:28">
+    <row r="1" ht="40" customHeight="1" spans="1:28">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
